--- a/docs/Weekly Gantt Charts/gantt_11_7.xlsx
+++ b/docs/Weekly Gantt Charts/gantt_11_7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/transitwise/docs/Weekly Gantt Charts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1490E907-768F-394E-9978-C005493BBF6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787D3F5A-34F9-AA43-B5BB-6FCF1FF61D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="87">
   <si>
     <t>GANTT CHART</t>
   </si>
@@ -273,6 +273,27 @@
   </si>
   <si>
     <t>Careers Page</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Time card page</t>
+  </si>
+  <si>
+    <t>View users info page (dropdown menu, could be used for both admin and employee)</t>
+  </si>
+  <si>
+    <t>Destination page, deals page (could be combined)</t>
+  </si>
+  <si>
+    <t>PHP User Class</t>
+  </si>
+  <si>
+    <t>PHP Links class</t>
+  </si>
+  <si>
+    <t>Roundtrip reservations</t>
   </si>
 </sst>
 </file>
@@ -680,7 +701,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -841,6 +862,28 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -855,14 +898,9 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -875,29 +913,73 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -1222,10 +1304,10 @@
     <tabColor rgb="FF3D85C6"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BZ47"/>
+  <dimension ref="A1:BZ51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="174" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A39" zoomScale="174" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -1322,38 +1404,38 @@
     </row>
     <row r="2" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
       <c r="H2" s="51"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="61"/>
-      <c r="AE2" s="61"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
       <c r="AF2" s="10"/>
       <c r="AG2" s="10"/>
       <c r="AH2" s="10"/>
@@ -1484,41 +1566,41 @@
     </row>
     <row r="4" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="66" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
       <c r="H4" s="53"/>
-      <c r="I4" s="64" t="s">
+      <c r="I4" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="68" t="s">
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="Q4" s="67"/>
-      <c r="R4" s="67"/>
-      <c r="S4" s="67"/>
-      <c r="T4" s="67"/>
-      <c r="U4" s="67"/>
-      <c r="V4" s="67"/>
-      <c r="W4" s="67"/>
-      <c r="X4" s="67"/>
-      <c r="Y4" s="67"/>
-      <c r="Z4" s="67"/>
-      <c r="AA4" s="67"/>
-      <c r="AB4" s="67"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="68"/>
+      <c r="T4" s="68"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="68"/>
+      <c r="W4" s="68"/>
+      <c r="X4" s="68"/>
+      <c r="Y4" s="68"/>
+      <c r="Z4" s="68"/>
+      <c r="AA4" s="68"/>
+      <c r="AB4" s="68"/>
       <c r="AC4" s="15"/>
       <c r="AD4" s="9"/>
       <c r="AE4" s="9"/>
@@ -1572,40 +1654,40 @@
     </row>
     <row r="5" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="78" t="s">
+      <c r="C5" s="66"/>
+      <c r="D5" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
       <c r="H5" s="54"/>
-      <c r="I5" s="64" t="s">
+      <c r="I5" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="79">
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="69">
         <v>45174</v>
       </c>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="67"/>
-      <c r="T5" s="67"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="68"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
+      <c r="W5" s="68"/>
+      <c r="X5" s="68"/>
+      <c r="Y5" s="68"/>
+      <c r="Z5" s="68"/>
+      <c r="AA5" s="68"/>
       <c r="AB5" s="16"/>
       <c r="AC5" s="15"/>
       <c r="AD5" s="1"/>
@@ -1828,205 +1910,205 @@
     </row>
     <row r="8" spans="1:78" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="21"/>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="58" t="s">
+      <c r="E8" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="58" t="s">
+      <c r="F8" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="58" t="s">
+      <c r="G8" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="69" t="s">
+      <c r="H8" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="71"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72"/>
-      <c r="O8" s="72"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="72"/>
-      <c r="R8" s="72"/>
-      <c r="S8" s="72"/>
-      <c r="T8" s="72"/>
-      <c r="U8" s="72"/>
-      <c r="V8" s="72"/>
-      <c r="W8" s="72"/>
-      <c r="X8" s="73"/>
-      <c r="Y8" s="72"/>
-      <c r="Z8" s="72"/>
-      <c r="AA8" s="72"/>
-      <c r="AB8" s="72"/>
-      <c r="AC8" s="72"/>
-      <c r="AD8" s="72"/>
-      <c r="AE8" s="72"/>
-      <c r="AF8" s="72"/>
-      <c r="AG8" s="72"/>
-      <c r="AH8" s="72"/>
-      <c r="AI8" s="72"/>
-      <c r="AJ8" s="72"/>
-      <c r="AK8" s="72"/>
-      <c r="AL8" s="72"/>
-      <c r="AM8" s="73"/>
-      <c r="AN8" s="72"/>
-      <c r="AO8" s="72"/>
-      <c r="AP8" s="72"/>
-      <c r="AQ8" s="72"/>
-      <c r="AR8" s="72"/>
-      <c r="AS8" s="72"/>
-      <c r="AT8" s="72"/>
-      <c r="AU8" s="72"/>
-      <c r="AV8" s="72"/>
-      <c r="AW8" s="72"/>
-      <c r="AX8" s="72"/>
-      <c r="AY8" s="72"/>
-      <c r="AZ8" s="72"/>
-      <c r="BA8" s="72"/>
-      <c r="BB8" s="73"/>
-      <c r="BC8" s="72"/>
-      <c r="BD8" s="72"/>
-      <c r="BE8" s="72"/>
-      <c r="BF8" s="72"/>
-      <c r="BG8" s="72"/>
-      <c r="BH8" s="72"/>
-      <c r="BI8" s="72"/>
-      <c r="BJ8" s="72"/>
-      <c r="BK8" s="72"/>
-      <c r="BL8" s="72"/>
-      <c r="BM8" s="72"/>
-      <c r="BN8" s="72"/>
-      <c r="BO8" s="72"/>
-      <c r="BP8" s="72"/>
-      <c r="BQ8" s="72"/>
-      <c r="BR8" s="72"/>
-      <c r="BS8" s="72"/>
-      <c r="BT8" s="72"/>
-      <c r="BU8" s="72"/>
-      <c r="BV8" s="72"/>
-      <c r="BW8" s="72"/>
-      <c r="BX8" s="72"/>
-      <c r="BY8" s="72"/>
-      <c r="BZ8" s="77"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="60"/>
+      <c r="O8" s="60"/>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="60"/>
+      <c r="R8" s="60"/>
+      <c r="S8" s="60"/>
+      <c r="T8" s="60"/>
+      <c r="U8" s="60"/>
+      <c r="V8" s="60"/>
+      <c r="W8" s="60"/>
+      <c r="X8" s="59"/>
+      <c r="Y8" s="60"/>
+      <c r="Z8" s="60"/>
+      <c r="AA8" s="60"/>
+      <c r="AB8" s="60"/>
+      <c r="AC8" s="60"/>
+      <c r="AD8" s="60"/>
+      <c r="AE8" s="60"/>
+      <c r="AF8" s="60"/>
+      <c r="AG8" s="60"/>
+      <c r="AH8" s="60"/>
+      <c r="AI8" s="60"/>
+      <c r="AJ8" s="60"/>
+      <c r="AK8" s="60"/>
+      <c r="AL8" s="60"/>
+      <c r="AM8" s="59"/>
+      <c r="AN8" s="60"/>
+      <c r="AO8" s="60"/>
+      <c r="AP8" s="60"/>
+      <c r="AQ8" s="60"/>
+      <c r="AR8" s="60"/>
+      <c r="AS8" s="60"/>
+      <c r="AT8" s="60"/>
+      <c r="AU8" s="60"/>
+      <c r="AV8" s="60"/>
+      <c r="AW8" s="60"/>
+      <c r="AX8" s="60"/>
+      <c r="AY8" s="60"/>
+      <c r="AZ8" s="60"/>
+      <c r="BA8" s="60"/>
+      <c r="BB8" s="59"/>
+      <c r="BC8" s="60"/>
+      <c r="BD8" s="60"/>
+      <c r="BE8" s="60"/>
+      <c r="BF8" s="60"/>
+      <c r="BG8" s="60"/>
+      <c r="BH8" s="60"/>
+      <c r="BI8" s="60"/>
+      <c r="BJ8" s="60"/>
+      <c r="BK8" s="60"/>
+      <c r="BL8" s="60"/>
+      <c r="BM8" s="60"/>
+      <c r="BN8" s="60"/>
+      <c r="BO8" s="60"/>
+      <c r="BP8" s="60"/>
+      <c r="BQ8" s="60"/>
+      <c r="BR8" s="60"/>
+      <c r="BS8" s="60"/>
+      <c r="BT8" s="60"/>
+      <c r="BU8" s="60"/>
+      <c r="BV8" s="60"/>
+      <c r="BW8" s="60"/>
+      <c r="BX8" s="60"/>
+      <c r="BY8" s="60"/>
+      <c r="BZ8" s="61"/>
     </row>
     <row r="9" spans="1:78" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="22"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="74" t="s">
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="74" t="s">
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="O9" s="75"/>
-      <c r="P9" s="75"/>
-      <c r="Q9" s="75"/>
-      <c r="R9" s="76"/>
-      <c r="S9" s="74" t="s">
+      <c r="O9" s="63"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="63"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="T9" s="75"/>
-      <c r="U9" s="75"/>
-      <c r="V9" s="75"/>
-      <c r="W9" s="76"/>
-      <c r="X9" s="74" t="s">
+      <c r="T9" s="63"/>
+      <c r="U9" s="63"/>
+      <c r="V9" s="63"/>
+      <c r="W9" s="64"/>
+      <c r="X9" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="Y9" s="75"/>
-      <c r="Z9" s="75"/>
-      <c r="AA9" s="75"/>
-      <c r="AB9" s="76"/>
-      <c r="AC9" s="74" t="s">
+      <c r="Y9" s="63"/>
+      <c r="Z9" s="63"/>
+      <c r="AA9" s="63"/>
+      <c r="AB9" s="64"/>
+      <c r="AC9" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="AD9" s="75"/>
-      <c r="AE9" s="75"/>
-      <c r="AF9" s="75"/>
-      <c r="AG9" s="76"/>
-      <c r="AH9" s="74" t="s">
+      <c r="AD9" s="63"/>
+      <c r="AE9" s="63"/>
+      <c r="AF9" s="63"/>
+      <c r="AG9" s="64"/>
+      <c r="AH9" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="AI9" s="75"/>
-      <c r="AJ9" s="75"/>
-      <c r="AK9" s="75"/>
-      <c r="AL9" s="76"/>
-      <c r="AM9" s="74" t="s">
+      <c r="AI9" s="63"/>
+      <c r="AJ9" s="63"/>
+      <c r="AK9" s="63"/>
+      <c r="AL9" s="64"/>
+      <c r="AM9" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="AN9" s="75"/>
-      <c r="AO9" s="75"/>
-      <c r="AP9" s="75"/>
-      <c r="AQ9" s="76"/>
-      <c r="AR9" s="74" t="s">
+      <c r="AN9" s="63"/>
+      <c r="AO9" s="63"/>
+      <c r="AP9" s="63"/>
+      <c r="AQ9" s="64"/>
+      <c r="AR9" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="AS9" s="75"/>
-      <c r="AT9" s="75"/>
-      <c r="AU9" s="75"/>
-      <c r="AV9" s="76"/>
-      <c r="AW9" s="74" t="s">
+      <c r="AS9" s="63"/>
+      <c r="AT9" s="63"/>
+      <c r="AU9" s="63"/>
+      <c r="AV9" s="64"/>
+      <c r="AW9" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="AX9" s="75"/>
-      <c r="AY9" s="75"/>
-      <c r="AZ9" s="75"/>
-      <c r="BA9" s="76"/>
-      <c r="BB9" s="74" t="s">
+      <c r="AX9" s="63"/>
+      <c r="AY9" s="63"/>
+      <c r="AZ9" s="63"/>
+      <c r="BA9" s="64"/>
+      <c r="BB9" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="BC9" s="75"/>
-      <c r="BD9" s="75"/>
-      <c r="BE9" s="75"/>
-      <c r="BF9" s="76"/>
-      <c r="BG9" s="74" t="s">
+      <c r="BC9" s="63"/>
+      <c r="BD9" s="63"/>
+      <c r="BE9" s="63"/>
+      <c r="BF9" s="64"/>
+      <c r="BG9" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="BH9" s="75"/>
-      <c r="BI9" s="75"/>
-      <c r="BJ9" s="75"/>
-      <c r="BK9" s="76"/>
-      <c r="BL9" s="74" t="s">
+      <c r="BH9" s="63"/>
+      <c r="BI9" s="63"/>
+      <c r="BJ9" s="63"/>
+      <c r="BK9" s="64"/>
+      <c r="BL9" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="BM9" s="75"/>
-      <c r="BN9" s="75"/>
-      <c r="BO9" s="75"/>
-      <c r="BP9" s="76"/>
-      <c r="BQ9" s="74" t="s">
+      <c r="BM9" s="63"/>
+      <c r="BN9" s="63"/>
+      <c r="BO9" s="63"/>
+      <c r="BP9" s="64"/>
+      <c r="BQ9" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="BR9" s="75"/>
-      <c r="BS9" s="75"/>
-      <c r="BT9" s="75"/>
-      <c r="BU9" s="76"/>
-      <c r="BV9" s="74" t="s">
+      <c r="BR9" s="63"/>
+      <c r="BS9" s="63"/>
+      <c r="BT9" s="63"/>
+      <c r="BU9" s="64"/>
+      <c r="BV9" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="BW9" s="75"/>
-      <c r="BX9" s="75"/>
-      <c r="BY9" s="75"/>
-      <c r="BZ9" s="76"/>
+      <c r="BW9" s="63"/>
+      <c r="BX9" s="63"/>
+      <c r="BY9" s="63"/>
+      <c r="BZ9" s="64"/>
     </row>
     <row r="10" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="18"/>
@@ -3256,7 +3338,7 @@
         <v>7</v>
       </c>
       <c r="H23" s="56">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="I23" s="38"/>
       <c r="J23" s="39"/>
@@ -3351,7 +3433,7 @@
         <v>7</v>
       </c>
       <c r="H24" s="56">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="I24" s="38"/>
       <c r="J24" s="39"/>
@@ -3433,7 +3515,7 @@
         <v>77</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E25" s="32">
         <v>45230</v>
@@ -3446,7 +3528,7 @@
         <v>7</v>
       </c>
       <c r="H25" s="56">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="I25" s="38"/>
       <c r="J25" s="39"/>
@@ -3524,10 +3606,10 @@
       <c r="B26" s="30">
         <v>2.7</v>
       </c>
-      <c r="C26" s="80" t="s">
+      <c r="C26" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="80" t="s">
+      <c r="D26" s="58" t="s">
         <v>78</v>
       </c>
       <c r="E26" s="32">
@@ -3619,13 +3701,19 @@
       <c r="B27" s="30">
         <v>2.8</v>
       </c>
-      <c r="C27" s="43"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="32"/>
+      <c r="C27" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" s="32">
+        <v>45237</v>
+      </c>
       <c r="F27" s="32"/>
       <c r="G27" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-44587</v>
       </c>
       <c r="H27" s="56"/>
       <c r="I27" s="38"/>
@@ -3704,13 +3792,19 @@
       <c r="B28" s="30">
         <v>2.9</v>
       </c>
-      <c r="C28" s="43"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="32"/>
+      <c r="C28" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="32">
+        <v>45237</v>
+      </c>
       <c r="F28" s="32"/>
       <c r="G28" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-44587</v>
       </c>
       <c r="H28" s="56"/>
       <c r="I28" s="38"/>
@@ -3789,13 +3883,19 @@
       <c r="B29" s="42">
         <v>2.1</v>
       </c>
-      <c r="C29" s="43"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="32"/>
+      <c r="C29" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="32">
+        <v>45237</v>
+      </c>
       <c r="F29" s="32"/>
       <c r="G29" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-44587</v>
       </c>
       <c r="H29" s="56"/>
       <c r="I29" s="38"/>
@@ -4347,7 +4447,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="H35" s="57">
+      <c r="H35" s="49">
         <v>0.95</v>
       </c>
       <c r="I35" s="38"/>
@@ -4823,7 +4923,7 @@
         <v>7</v>
       </c>
       <c r="H40" s="49">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="I40" s="38"/>
       <c r="J40" s="39"/>
@@ -5108,7 +5208,7 @@
         <v>14</v>
       </c>
       <c r="H43" s="49">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="I43" s="38"/>
       <c r="J43" s="39"/>
@@ -5203,7 +5303,7 @@
         <v>7</v>
       </c>
       <c r="H44" s="49">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="I44" s="38"/>
       <c r="J44" s="39"/>
@@ -5376,12 +5476,20 @@
       <c r="B46" s="30">
         <v>8.5</v>
       </c>
-      <c r="C46" s="46"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="32"/>
+      <c r="C46" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="D46" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="E46" s="32">
+        <v>45237</v>
+      </c>
       <c r="F46" s="32"/>
       <c r="G46" s="33"/>
-      <c r="H46" s="49"/>
+      <c r="H46" s="49">
+        <v>0</v>
+      </c>
       <c r="I46" s="38"/>
       <c r="J46" s="39"/>
       <c r="K46" s="34"/>
@@ -5458,12 +5566,20 @@
       <c r="B47" s="30">
         <v>9.5</v>
       </c>
-      <c r="C47" s="46"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="32"/>
+      <c r="C47" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="D47" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="E47" s="32">
+        <v>45237</v>
+      </c>
       <c r="F47" s="32"/>
       <c r="G47" s="33"/>
-      <c r="H47" s="49"/>
+      <c r="H47" s="49">
+        <v>0</v>
+      </c>
       <c r="I47" s="38"/>
       <c r="J47" s="39"/>
       <c r="K47" s="34"/>
@@ -5535,8 +5651,351 @@
       <c r="BY47" s="34"/>
       <c r="BZ47" s="34"/>
     </row>
+    <row r="48" spans="1:78" ht="17" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="29"/>
+      <c r="B48" s="30">
+        <v>9.6</v>
+      </c>
+      <c r="C48" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="D48" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="E48" s="32">
+        <v>45237</v>
+      </c>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="49">
+        <v>0</v>
+      </c>
+      <c r="I48" s="38"/>
+      <c r="J48" s="39"/>
+      <c r="K48" s="34"/>
+      <c r="L48" s="34"/>
+      <c r="M48" s="34"/>
+      <c r="N48" s="40"/>
+      <c r="O48" s="40"/>
+      <c r="P48" s="40"/>
+      <c r="Q48" s="40"/>
+      <c r="R48" s="40"/>
+      <c r="S48" s="34"/>
+      <c r="T48" s="34"/>
+      <c r="U48" s="34"/>
+      <c r="V48" s="34"/>
+      <c r="W48" s="34"/>
+      <c r="X48" s="34"/>
+      <c r="Y48" s="34"/>
+      <c r="Z48" s="34"/>
+      <c r="AA48" s="34"/>
+      <c r="AB48" s="34"/>
+      <c r="AC48" s="35"/>
+      <c r="AD48" s="35"/>
+      <c r="AE48" s="35"/>
+      <c r="AF48" s="35"/>
+      <c r="AG48" s="35"/>
+      <c r="AH48" s="34"/>
+      <c r="AI48" s="34"/>
+      <c r="AJ48" s="34"/>
+      <c r="AK48" s="34"/>
+      <c r="AL48" s="34"/>
+      <c r="AM48" s="34"/>
+      <c r="AN48" s="34"/>
+      <c r="AO48" s="34"/>
+      <c r="AP48" s="34"/>
+      <c r="AQ48" s="34"/>
+      <c r="AR48" s="36"/>
+      <c r="AS48" s="36"/>
+      <c r="AT48" s="36"/>
+      <c r="AU48" s="36"/>
+      <c r="AV48" s="36"/>
+      <c r="AW48" s="34"/>
+      <c r="AX48" s="34"/>
+      <c r="AY48" s="34"/>
+      <c r="AZ48" s="34"/>
+      <c r="BA48" s="34"/>
+      <c r="BB48" s="34"/>
+      <c r="BC48" s="34"/>
+      <c r="BD48" s="34"/>
+      <c r="BE48" s="34"/>
+      <c r="BF48" s="34"/>
+      <c r="BG48" s="37"/>
+      <c r="BH48" s="37"/>
+      <c r="BI48" s="37"/>
+      <c r="BJ48" s="37"/>
+      <c r="BK48" s="37"/>
+      <c r="BL48" s="34"/>
+      <c r="BM48" s="34"/>
+      <c r="BN48" s="34"/>
+      <c r="BO48" s="34"/>
+      <c r="BP48" s="34"/>
+      <c r="BQ48" s="34"/>
+      <c r="BR48" s="34"/>
+      <c r="BS48" s="34"/>
+      <c r="BT48" s="34"/>
+      <c r="BU48" s="34"/>
+      <c r="BV48" s="34"/>
+      <c r="BW48" s="34"/>
+      <c r="BX48" s="34"/>
+      <c r="BY48" s="34"/>
+      <c r="BZ48" s="34"/>
+    </row>
+    <row r="49" spans="1:78" ht="17" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="29"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="39"/>
+      <c r="K49" s="34"/>
+      <c r="L49" s="34"/>
+      <c r="M49" s="34"/>
+      <c r="N49" s="40"/>
+      <c r="O49" s="40"/>
+      <c r="P49" s="40"/>
+      <c r="Q49" s="40"/>
+      <c r="R49" s="40"/>
+      <c r="S49" s="34"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="34"/>
+      <c r="V49" s="34"/>
+      <c r="W49" s="34"/>
+      <c r="X49" s="34"/>
+      <c r="Y49" s="34"/>
+      <c r="Z49" s="34"/>
+      <c r="AA49" s="34"/>
+      <c r="AB49" s="34"/>
+      <c r="AC49" s="35"/>
+      <c r="AD49" s="35"/>
+      <c r="AE49" s="35"/>
+      <c r="AF49" s="35"/>
+      <c r="AG49" s="35"/>
+      <c r="AH49" s="34"/>
+      <c r="AI49" s="34"/>
+      <c r="AJ49" s="34"/>
+      <c r="AK49" s="34"/>
+      <c r="AL49" s="34"/>
+      <c r="AM49" s="34"/>
+      <c r="AN49" s="34"/>
+      <c r="AO49" s="34"/>
+      <c r="AP49" s="34"/>
+      <c r="AQ49" s="34"/>
+      <c r="AR49" s="36"/>
+      <c r="AS49" s="36"/>
+      <c r="AT49" s="36"/>
+      <c r="AU49" s="36"/>
+      <c r="AV49" s="36"/>
+      <c r="AW49" s="34"/>
+      <c r="AX49" s="34"/>
+      <c r="AY49" s="34"/>
+      <c r="AZ49" s="34"/>
+      <c r="BA49" s="34"/>
+      <c r="BB49" s="34"/>
+      <c r="BC49" s="34"/>
+      <c r="BD49" s="34"/>
+      <c r="BE49" s="34"/>
+      <c r="BF49" s="34"/>
+      <c r="BG49" s="37"/>
+      <c r="BH49" s="37"/>
+      <c r="BI49" s="37"/>
+      <c r="BJ49" s="37"/>
+      <c r="BK49" s="37"/>
+      <c r="BL49" s="34"/>
+      <c r="BM49" s="34"/>
+      <c r="BN49" s="34"/>
+      <c r="BO49" s="34"/>
+      <c r="BP49" s="34"/>
+      <c r="BQ49" s="34"/>
+      <c r="BR49" s="34"/>
+      <c r="BS49" s="34"/>
+      <c r="BT49" s="34"/>
+      <c r="BU49" s="34"/>
+      <c r="BV49" s="34"/>
+      <c r="BW49" s="34"/>
+      <c r="BX49" s="34"/>
+      <c r="BY49" s="34"/>
+      <c r="BZ49" s="34"/>
+    </row>
+    <row r="50" spans="1:78" ht="17" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="29"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="38"/>
+      <c r="J50" s="39"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="34"/>
+      <c r="M50" s="34"/>
+      <c r="N50" s="40"/>
+      <c r="O50" s="40"/>
+      <c r="P50" s="40"/>
+      <c r="Q50" s="40"/>
+      <c r="R50" s="40"/>
+      <c r="S50" s="34"/>
+      <c r="T50" s="34"/>
+      <c r="U50" s="34"/>
+      <c r="V50" s="34"/>
+      <c r="W50" s="34"/>
+      <c r="X50" s="34"/>
+      <c r="Y50" s="34"/>
+      <c r="Z50" s="34"/>
+      <c r="AA50" s="34"/>
+      <c r="AB50" s="34"/>
+      <c r="AC50" s="35"/>
+      <c r="AD50" s="35"/>
+      <c r="AE50" s="35"/>
+      <c r="AF50" s="35"/>
+      <c r="AG50" s="35"/>
+      <c r="AH50" s="34"/>
+      <c r="AI50" s="34"/>
+      <c r="AJ50" s="34"/>
+      <c r="AK50" s="34"/>
+      <c r="AL50" s="34"/>
+      <c r="AM50" s="34"/>
+      <c r="AN50" s="34"/>
+      <c r="AO50" s="34"/>
+      <c r="AP50" s="34"/>
+      <c r="AQ50" s="34"/>
+      <c r="AR50" s="36"/>
+      <c r="AS50" s="36"/>
+      <c r="AT50" s="36"/>
+      <c r="AU50" s="36"/>
+      <c r="AV50" s="36"/>
+      <c r="AW50" s="34"/>
+      <c r="AX50" s="34"/>
+      <c r="AY50" s="34"/>
+      <c r="AZ50" s="34"/>
+      <c r="BA50" s="34"/>
+      <c r="BB50" s="34"/>
+      <c r="BC50" s="34"/>
+      <c r="BD50" s="34"/>
+      <c r="BE50" s="34"/>
+      <c r="BF50" s="34"/>
+      <c r="BG50" s="37"/>
+      <c r="BH50" s="37"/>
+      <c r="BI50" s="37"/>
+      <c r="BJ50" s="37"/>
+      <c r="BK50" s="37"/>
+      <c r="BL50" s="34"/>
+      <c r="BM50" s="34"/>
+      <c r="BN50" s="34"/>
+      <c r="BO50" s="34"/>
+      <c r="BP50" s="34"/>
+      <c r="BQ50" s="34"/>
+      <c r="BR50" s="34"/>
+      <c r="BS50" s="34"/>
+      <c r="BT50" s="34"/>
+      <c r="BU50" s="34"/>
+      <c r="BV50" s="34"/>
+      <c r="BW50" s="34"/>
+      <c r="BX50" s="34"/>
+      <c r="BY50" s="34"/>
+      <c r="BZ50" s="34"/>
+    </row>
+    <row r="51" spans="1:78" ht="17" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="29"/>
+      <c r="I51" s="81"/>
+      <c r="J51" s="82"/>
+      <c r="K51" s="83"/>
+      <c r="L51" s="83"/>
+      <c r="M51" s="83"/>
+      <c r="N51" s="84"/>
+      <c r="O51" s="84"/>
+      <c r="P51" s="84"/>
+      <c r="Q51" s="84"/>
+      <c r="R51" s="84"/>
+      <c r="S51" s="83"/>
+      <c r="T51" s="83"/>
+      <c r="U51" s="83"/>
+      <c r="V51" s="83"/>
+      <c r="W51" s="83"/>
+      <c r="X51" s="83"/>
+      <c r="Y51" s="83"/>
+      <c r="Z51" s="83"/>
+      <c r="AA51" s="83"/>
+      <c r="AB51" s="83"/>
+      <c r="AC51" s="85"/>
+      <c r="AD51" s="85"/>
+      <c r="AE51" s="85"/>
+      <c r="AF51" s="85"/>
+      <c r="AG51" s="85"/>
+      <c r="AH51" s="83"/>
+      <c r="AI51" s="83"/>
+      <c r="AJ51" s="83"/>
+      <c r="AK51" s="83"/>
+      <c r="AL51" s="83"/>
+      <c r="AM51" s="83"/>
+      <c r="AN51" s="83"/>
+      <c r="AO51" s="83"/>
+      <c r="AP51" s="83"/>
+      <c r="AQ51" s="83"/>
+      <c r="AR51" s="86"/>
+      <c r="AS51" s="86"/>
+      <c r="AT51" s="86"/>
+      <c r="AU51" s="86"/>
+      <c r="AV51" s="86"/>
+      <c r="AW51" s="83"/>
+      <c r="AX51" s="83"/>
+      <c r="AY51" s="83"/>
+      <c r="AZ51" s="83"/>
+      <c r="BA51" s="83"/>
+      <c r="BB51" s="83"/>
+      <c r="BC51" s="83"/>
+      <c r="BD51" s="83"/>
+      <c r="BE51" s="83"/>
+      <c r="BF51" s="83"/>
+      <c r="BG51" s="87"/>
+      <c r="BH51" s="87"/>
+      <c r="BI51" s="87"/>
+      <c r="BJ51" s="87"/>
+      <c r="BK51" s="87"/>
+      <c r="BL51" s="83"/>
+      <c r="BM51" s="83"/>
+      <c r="BN51" s="83"/>
+      <c r="BO51" s="83"/>
+      <c r="BP51" s="83"/>
+      <c r="BQ51" s="83"/>
+      <c r="BR51" s="83"/>
+      <c r="BS51" s="83"/>
+      <c r="BT51" s="83"/>
+      <c r="BU51" s="83"/>
+      <c r="BV51" s="83"/>
+      <c r="BW51" s="83"/>
+      <c r="BX51" s="83"/>
+      <c r="BY51" s="83"/>
+      <c r="BZ51" s="83"/>
+    </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="O2:AE2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:AB4"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:W8"/>
+    <mergeCell ref="X8:AL8"/>
+    <mergeCell ref="AM8:BA8"/>
+    <mergeCell ref="X9:AB9"/>
+    <mergeCell ref="AC9:AG9"/>
+    <mergeCell ref="AH9:AL9"/>
+    <mergeCell ref="AM9:AQ9"/>
+    <mergeCell ref="AR9:AV9"/>
+    <mergeCell ref="AW9:BA9"/>
     <mergeCell ref="BB8:BZ8"/>
     <mergeCell ref="I9:M9"/>
     <mergeCell ref="N9:R9"/>
@@ -5553,43 +6012,23 @@
     <mergeCell ref="BQ9:BU9"/>
     <mergeCell ref="BV9:BZ9"/>
     <mergeCell ref="S9:W9"/>
-    <mergeCell ref="AM8:BA8"/>
-    <mergeCell ref="X9:AB9"/>
-    <mergeCell ref="AC9:AG9"/>
-    <mergeCell ref="AH9:AL9"/>
-    <mergeCell ref="AM9:AQ9"/>
-    <mergeCell ref="AR9:AV9"/>
-    <mergeCell ref="AW9:BA9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="O2:AE2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:AB4"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:W8"/>
-    <mergeCell ref="X8:AL8"/>
   </mergeCells>
-  <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
+  <conditionalFormatting sqref="H53:H1048576 H1:H50">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="between">
       <formula>0.01</formula>
-      <formula>0.99</formula>
+      <formula>0.849</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11:H17 H19:H47">
-    <cfRule type="colorScale" priority="10">
+  <conditionalFormatting sqref="H11:H17 H19:H50">
+    <cfRule type="colorScale" priority="21">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="percent" val="0.85"/>
         <cfvo type="max"/>
-        <color rgb="FFFFFFFF"/>
+        <color theme="7" tint="0.59999389629810485"/>
         <color rgb="FF57BB8A"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="11">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5610,6 +6049,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F7EF2104F2CEFE4DACFBF5BA7D93FB4D" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bb0ed258f694207805e211ca255f9b46">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6b71f768-6d8b-468c-a986-1e1afc74f0e3" xmlns:ns4="d07d918a-d172-4450-8f4a-7b087689ff85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c03c9fe975be0719773112499dde791" ns3:_="" ns4:_="">
     <xsd:import namespace="6b71f768-6d8b-468c-a986-1e1afc74f0e3"/>
@@ -5838,15 +6286,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14D564B3-5264-41FC-B8E0-395B567D9994}">
   <ds:schemaRefs>
@@ -5865,6 +6304,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7F187D4-7552-4664-8374-8AA9CBDA3C6B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FABC364-430D-422C-AD85-145699D2125C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5881,12 +6328,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7F187D4-7552-4664-8374-8AA9CBDA3C6B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>